--- a/ResultadoEleicoesDistritos/ÉVORA_PORTEL.xlsx
+++ b/ResultadoEleicoesDistritos/ÉVORA_PORTEL.xlsx
@@ -597,64 +597,64 @@
         <v>1494</v>
       </c>
       <c r="H2" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I2" t="n">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S2" t="n">
+        <v>69</v>
+      </c>
+      <c r="T2" t="n">
+        <v>102</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V2" t="n">
+        <v>972</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>900</v>
+      </c>
+      <c r="Y2" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>64</v>
-      </c>
-      <c r="T2" t="n">
-        <v>113</v>
-      </c>
-      <c r="U2" t="n">
-        <v>7</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1018</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>920</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
       <c r="Z2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA2" t="n">
         <v>9</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
